--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/FP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/FP_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LLM_Events_example_evidence_Sent</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Event_Name_Sleep</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>negation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_in_gt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -535,52 +545,62 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-16 04:45:00'), Timestamp('2180-03-16 04:54:00'))</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'text': 'monitor resp sts/sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "monitor resp sts/sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "apnea"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'apnea'}}}], 'orders': [[]], 'text_quotes': ['monitor resp sts/sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-16 04:45:00 and 2180-03-16 04:54:00):\n           monitor resp sts/sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.526253788964823}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['monitor resp sts/sleep apnea']</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea'}}}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>['monitor resp sts/sleep apnea']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:monitor resp sts/sleep apnea']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -606,52 +626,62 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-15 15:11:00'), Timestamp('2164-12-15 15:23:00'))</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'text': 'oral airway piece at bedside for sleep apnea', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "oral airway piece at bedside for sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['oral airway piece at bedside for sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-15 15:11:00 and 2164-12-15 15:23:00):\n           oral airway piece at bedside for sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.827088928082958}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['oral airway piece at bedside for sleep apnea']</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>['oral airway piece at bedside for sleep apnea']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:oral airway piece at bedside for sleep apnea']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -677,52 +707,62 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-26 05:51:00'), Timestamp('2102-09-26 06:05:00'))</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'text': 'sedation/sleep meds', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sedation/sleep meds",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}], 'orders': [[]], 'text_quotes': ['sedation/sleep meds'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-26 05:51:00 and 2102-09-26 06:05:00):\n           sedation/sleep meds\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.1817634110338986}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>['sedation/sleep meds']</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['sedation/sleep meds']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sedation/sleep meds']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -748,52 +788,62 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-27 06:28:00'), Timestamp('2102-09-27 06:46:00'))</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'text': '(in the past has slept very well with 7.5mg) by 6am patient alert and oriented x3', 'event': ['Sleep', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "(in the past has slept very well with 7.5mg)",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "well"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "by 6am patient alert and oriented x3",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "6am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Sleep': {'Sleep': {}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['(in the past has slept very well with 7.5mg)', 'by 6am patient alert and oriented x3'], 'event_time': ['Unknown', '6am'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-27 06:28:00 and 2102-09-27 06:46:00):\n           (in the past has slept very well with 7.5mg) by 6am patient alert and oriented x3\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.317744780797511}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['(in the past has slept very well with 7.5mg)', 'by 6am patient alert and oriented x3']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['Sleep', 'Sleep']</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['(in the past has slept very well with 7.5mg)', 'by 6am patient alert and oriented x3']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:(in the past has slept very well with 7.5mg)', 'e2=Sleep|1:by 6am patient alert and oriented x3']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -819,52 +869,62 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-17 18:05:00'), Timestamp('2167-05-17 18:22:00'))</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'text': 'robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day', 'event': ['Sleep', 'Excretion'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "robitussin with codiene ordered for hs, to aide sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "hs",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "otherwise they prefer he clear secretions during day",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "day",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "secretions",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'Unknown', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['robitussin with codiene ordered for hs, to aide sleep', 'otherwise they prefer he clear secretions during day'], 'event_time': ['hs', 'day'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-17 18:05:00 and 2167-05-17 18:22:00):\n           robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.280965139856562}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>['robitussin with codiene ordered for hs, to aide sleep']</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion']</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'Unknown', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['robitussin with codiene ordered for hs, to aide sleep', 'otherwise they prefer he clear secretions during day']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:robitussin with codiene ordered for hs, to aide sleep', 'e2=Excretion|1:otherwise they prefer he clear secretions during day']</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -890,56 +950,66 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-21 05:19:00'), Timestamp('2167-05-21 05:32:00'))</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>{'text': 'asking for sleeping aid again', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "asking for sleeping aid again",\n            "actor": "patient",\n            "object": "sleeping aid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['asking for sleeping aid again'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-21 05:19:00 and 2167-05-21 05:32:00):\n           asking for sleeping aid again\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.707253442145884}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>request for med</t>
         </is>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>['asking for sleeping aid again']</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>['asking for sleeping aid again']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:asking for sleeping aid again']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -965,52 +1035,62 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-12 03:01:00'), Timestamp('2183-03-12 03:31:00'))</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nursing progress note 1900-0700: 3vd, preop cabgs-" am i getting a sleeping pill tonight', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "am i getting a sleeping pill tonight",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "tonight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}], 'orders': [[]], 'text_quotes': ['am i getting a sleeping pill tonight', ''], 'event_time': ['tonight', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-12 03:01:00 and 2183-03-12 03:31:00):\n           ccu nursing progress note 1900-0700: 3vd, preop cabgs-" am i getting a sleeping pill tonight\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 5.631320595974103}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>['am i getting a sleeping pill tonight']</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['am i getting a sleeping pill tonight', '']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:am i getting a sleeping pill tonight', 'e2=Pain|1:']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1036,52 +1116,62 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-11 18:23:00'), Timestamp('2183-03-11 18:38:00'))</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'text': 'ativan ordered for sleep per anesthesia', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "ativan ordered for sleep per anesthesia",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}], 'orders': [[]], 'text_quotes': ['ativan ordered for sleep per anesthesia'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-11 18:23:00 and 2183-03-11 18:38:00):\n           ativan ordered for sleep per anesthesia\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.2664665640331805}</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>['ativan ordered for sleep per anesthesia']</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>['ativan ordered for sleep per anesthesia']</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:ativan ordered for sleep per anesthesia']</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1107,52 +1197,62 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-06 02:12:00'), Timestamp('2171-01-06 02:27:00'))</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'text': 'stated that he was very tired and wanted to sleep around 9pm', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "stated that he was very tired and wanted to sleep around 9pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['stated that he was very tired and wanted to sleep around 9pm'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-06 02:12:00 and 2171-01-06 02:27:00):\n           stated that he was very tired and wanted to sleep around 9pm\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.970421321922913}</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>['stated that he was very tired and wanted to sleep around 9pm']</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['stated that he was very tired and wanted to sleep around 9pm']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:stated that he was very tired and wanted to sleep around 9pm']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1178,52 +1278,62 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-06 02:12:00'), Timestamp('2171-01-06 02:27:00'))</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'text': 'monitor sao2 while asleep', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "monitor sao2 while asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['monitor sao2 while asleep'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-06 02:12:00 and 2171-01-06 02:27:00):\n           monitor sao2 while asleep\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.666429700097069}</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['monitor sao2 while asleep']</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['monitor sao2 while asleep']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:monitor sao2 while asleep']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1249,52 +1359,62 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-06 18:45:00'), Timestamp('2171-01-06 18:52:00'))</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'text': 'will need bipap when sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "will need bipap when sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['will need bipap when sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-06 18:45:00 and 2171-01-06 18:52:00):\n           will need bipap when sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7066721990704536}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['will need bipap when sleeping']</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>['will need bipap when sleeping']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:will need bipap when sleeping']</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1320,56 +1440,66 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(Timestamp('2121-12-28 06:29:00'), Timestamp('2121-12-28 06:44:00'))</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>{'text': 'daughter was encourage to rest and was able to sleep the night', 'event': ['Sleep', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "was able to sleep the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "daughter was encourage to rest",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "encouragement",\n          "relation": "daughter"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'encouragement', 'relation': 'daughter'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['was able to sleep the night', 'daughter was encourage to rest'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2121-12-28 06:29:00 and 2121-12-28 06:44:00):\n           daughter was encourage to rest and was able to sleep the night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member'], 'event_detection_time': 7.688130519818515}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>family event</t>
         </is>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>['was able to sleep the night']</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>['Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'encouragement', 'relation': 'daughter'}}}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>['was able to sleep the night', 'daughter was encourage to rest']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:was able to sleep the night', 'e2=Family|1:daughter was encourage to rest']</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1395,52 +1525,62 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(Timestamp('2101-01-18 05:47:00'), Timestamp('2101-01-18 06:09:00'))</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'text': 'order for sleeping pills, pain mgmt', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "pain mgmt",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "order for sleeping pills",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['pain mgmt', 'order for sleeping pills'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2101-01-18 05:47:00 and 2101-01-18 06:09:00):\n           order for sleeping pills, pain mgmt\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.756326922914013}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['order for sleeping pills']</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>['pain mgmt', 'order for sleeping pills']</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pain mgmt', 'e2=Sleep|1:order for sleeping pills']</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1466,56 +1606,66 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(Timestamp('2165-12-17 04:07:00'), Timestamp('2165-12-17 04:31:00'))</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>{'text': 'patient was concerned she would not sleep', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient was concerned she would not sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['patient was concerned she would not sleep'], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2165-12-17 04:07:00 and 2165-12-17 04:31:00):\n           patient was concerned she would not sleep\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7277186571154743}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>concern</t>
         </is>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>['patient was concerned she would not sleep']</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>['patient was concerned she would not sleep']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient was concerned she would not sleep']</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1541,52 +1691,62 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(Timestamp('2173-09-13 06:03:00'), Timestamp('2173-09-13 06:21:00'))</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'text': 'skin- sacrum slightly pink, patient does not want to sleep on side, prefers to be in 30-45 degree position', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient does not want to sleep on side, prefers to be in 30-45 degree position",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "skin- sacrum slightly pink, patient does not want to sleep on side",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "sacrum",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'sacrum', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['patient does not want to sleep on side, prefers to be in 30-45 degree position', 'skin- sacrum slightly pink, patient does not want to sleep on side'], 'event_time': ['Unknown', 'Unknown'], 'negation': [True, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2173-09-13 06:03:00 and 2173-09-13 06:21:00):\n           skin- sacrum slightly pink, patient does not want to sleep on side, prefers to be in 30-45 degree position\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.640809602104127}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>['patient does not want to sleep on side, prefers to be in 30-45 degree position']</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'sacrum', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['patient does not want to sleep on side, prefers to be in 30-45 degree position', 'skin- sacrum slightly pink, patient does not want to sleep on side']</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient does not want to sleep on side, prefers to be in 30-45 degree position', 'e2=Pain|1:skin- sacrum slightly pink, patient does not want to sleep on side']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1612,56 +1772,66 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(Timestamp('2189-08-05 05:08:00'), Timestamp('2189-08-05 05:14:00'))</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>{'text': 'given trazadone last eve for sleep', 'event': ['Sleep', 'Eating'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "given trazadone last eve for sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['given trazadone last eve for sleep', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2189-08-05 05:08:00 and 2189-08-05 05:14:00):\n           given trazadone last eve for sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.788655003998429}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>medication for sleep</t>
         </is>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>['given trazadone last eve for sleep']</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>['given trazadone last eve for sleep', '']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:given trazadone last eve for sleep', 'e2=Eating|1:']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1687,56 +1857,66 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(Timestamp('2201-05-27 23:58:00'), Timestamp('2201-05-28 00:07:00'))</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>{'text': 'nsg admission note 23 yr old man, fell asleep while driving, hit a tree', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "23"\n        },\n        {\n            "attribute_name": "admission reason",\n            "attribute_value": "fell asleep while driving and hit a tree"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "fell asleep while driving",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['fell asleep while driving'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2201-05-27 23:58:00 and 2201-05-28 00:07:00):\n           nsg admission note 23 yr old man, fell asleep while driving, hit a tree\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '23'}, {'attribute_name': 'admission reason', 'attribute_value': 'fell asleep while driving and hit a tree'}]], 'actor': ['patient'], 'event_detection_time': 5.133975842967629}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>case attribute</t>
         </is>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['fell asleep while driving']</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['fell asleep while driving']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:fell asleep while driving']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1762,52 +1942,62 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(Timestamp('2145-07-20 16:23:00'), Timestamp('2145-07-20 16:47:00'))</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'text': 'sat 95-97% on 5l nc, bipap at the bedside for when patient is sleeping', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "bipap at the bedside for when patient is sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {}}}], 'orders': [[]], 'text_quotes': ['bipap at the bedside for when patient is sleeping'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2145-07-20 16:23:00 and 2145-07-20 16:47:00):\n           sat 95-97% on 5l nc, bipap at the bedside for when patient is sleeping\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.399362306809053}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>['bipap at the bedside for when patient is sleeping']</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>['bipap at the bedside for when patient is sleeping']</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:bipap at the bedside for when patient is sleeping']</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1833,56 +2023,66 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(Timestamp('2122-07-26 05:55:00'), Timestamp('2122-07-26 06:17:00'))</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>{'text': 'ativan .5mg iv x1 at 0000 given for sleep', 'event': ['Sleep', 'Eating', 'Pain', 'Excretion', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "given for sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "0000",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "ativan .5mg iv x1 at 0000 given for sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "0000",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e6",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['given for sleep', '', '', '', '', 'ativan .5mg iv x1 at 0000 given for sleep'], 'event_time': ['0000', 'Unknown', 'Unknown', 'Unknown', 'Unknown', '0000'], 'negation': [False, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2122-07-26 05:55:00 and 2122-07-26 06:17:00):\n           ativan .5mg iv x1 at 0000 given for sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.945775229949504}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>Need to know context</t>
         </is>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['given for sleep']</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating', 'Pain', 'Excretion', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['given for sleep', '', '', '', '', 'ativan .5mg iv x1 at 0000 given for sleep']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:given for sleep', 'e2=Eating|1:', 'e3=Pain|1:', 'e4=Excretion|1:', 'e5=Family|1:', 'e6=Unknown|1:ativan .5mg iv x1 at 0000 given for sleep']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1908,52 +2108,62 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(Timestamp('2138-11-23 23:49:00'), Timestamp('2138-11-24 00:04:00'))</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'text': 'comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient has ms 1-10mg iv q3 hr for pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient has ativan 1mg iv q6hr for anxiety and sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient has ms 1-10mg iv q3 hr for pain', 'patient has ativan 1mg iv q6hr for anxiety and sleep'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2138-11-23 23:49:00 and 2138-11-24 00:04:00):\n           comfort: patient has ms 1-10mg iv q3 hr for pain and ativan 1mg iv q6hr for anxiety and sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.432071723975241}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>['patient has ativan 1mg iv q6hr for anxiety and sleep']</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['patient has ms 1-10mg iv q3 hr for pain', 'patient has ativan 1mg iv q6hr for anxiety and sleep']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient has ms 1-10mg iv q3 hr for pain', 'e2=Sleep|0:patient has ativan 1mg iv q6hr for anxiety and sleep']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -1979,56 +2189,66 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-12-11 06:44:00'), Timestamp('2180-12-11 06:58:00'))</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>{'text': "patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'", 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested \'sleeping pill\'",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "anxious",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested \'sleeping pill\'",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "e1",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'anxious', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ["patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'", "patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'"], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'e1'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-12-11 06:44:00 and 2180-12-11 06:58:00):\n           patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested \'sleeping pill\'\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.847504541976377}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>request for medicine</t>
         </is>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>["patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'"]</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'anxious', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>["patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'", "patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'"]</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>["e1=Pain|1:patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'", "e2=Sleep|1:patient complained of feeling anxious after preop assessment by anesthesia at commencement of shift, requested 'sleeping pill'"]</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2054,52 +2274,62 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(Timestamp('2173-01-18 06:34:00'), Timestamp('2173-01-18 06:54:00'))</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'text': 'patient refusing ng tube, despite several attempts to persuade her. patient stated she would agree to ng if she were "put to sleep", with sedation to keep her comfortable', 'event': ['Eating', 'Sleep', 'Pain'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "patient refusing ng tube",\n            "actor": "patient",\n            "object": "ng tube",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "tube"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient stated she would agree to ng if she were \\"put to sleep\\"",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "e1",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "with sedation to keep her comfortable",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "e2",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'tube'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['patient refusing ng tube', 'patient stated she would agree to ng if she were "put to sleep"', 'with sedation to keep her comfortable'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False], 'caused_by': ['Unknown', 'e1', 'e2'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2173-01-18 06:34:00 and 2173-01-18 06:54:00):\n           patient refusing ng tube, despite several attempts to persuade her. patient stated she would agree to ng if she were "put to sleep", with sedation to keep her comfortable\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.371460632886738}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['patient stated she would agree to ng if she were "put to sleep"']</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Eating', 'Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'tube'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>['patient refusing ng tube', 'patient stated she would agree to ng if she were "put to sleep"', 'with sedation to keep her comfortable']</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>['e1=Eating|1:patient refusing ng tube', 'e2=Sleep|1:patient stated she would agree to ng if she were "put to sleep"', 'e3=Pain|1:with sedation to keep her comfortable']</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2125,52 +2355,62 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(Timestamp('2197-06-20 05:26:00'), Timestamp('2197-06-20 05:41:00'))</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'text': 'xanax/ambien for sleep.contin', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "xanax/ambien for sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['xanax/ambien for sleep'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2197-06-20 05:26:00 and 2197-06-20 05:41:00):\n           xanax/ambien for sleep.contin\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.726267568068579}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['xanax/ambien for sleep']</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>['xanax/ambien for sleep']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:xanax/ambien for sleep']</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2196,56 +2436,66 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(Timestamp('2107-08-17 14:08:00'), Timestamp('2107-08-17 14:21:00'))</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>{'text': '[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient was unrestrained and sleeping in truck",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['patient was unrestrained and sleeping in truck', '[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2107-08-17 14:08:00 and 2107-08-17 14:21:00):\n           [**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree\n        ', 'case_attributes': [[]], 'actor': ['patient', 'others'], 'event_detection_time': 7.15121033298783}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>case attribute</t>
         </is>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>['patient was unrestrained and sleeping in truck']</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>['patient was unrestrained and sleeping in truck', '[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree']</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient was unrestrained and sleeping in truck', 'e2=Unknown|1:[**name (ni) **] was driving a towtruck and patient was unrestrained and sleeping in truck when it struck a tree']</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -2271,56 +2521,66 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(Timestamp('2187-05-11 04:50:00'), Timestamp('2187-05-11 05:14:00'))</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>{'text': 'patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', 'event': ['Sleep', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": ""\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': ''}]], 'text_quotes': ['patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', 'patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2187-05-11 04:50:00 and 2187-05-11 05:14:00):\n           patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', ''], 'event_detection_time': 12.252624936867505}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>want to sleep</t>
         </is>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>['patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula']</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {}}]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>['patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', 'patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', '']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', 'e2=Pain|1:patient stated that all he wanted to do was sleep so repositioned and o2 increased as sats 88% on 4 liters nasal cannula', 'e3=Excretion|1:']</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': ''}]]</t>
         </is>
@@ -2346,52 +2606,62 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(Timestamp('2154-01-08 15:12:00'), Timestamp('2154-01-08 15:38:00'))</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'text': 'speach and swallow consult reminded patient that [** **] should be removed in evening prior to going to sleep', 'event': ['Sleep', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "going to sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "reminded patient that [** **] should be removed in evening prior to going to sleep",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "communication",\n                    "relation": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['going to sleep', 'reminded patient that [** **] should be removed in evening prior to going to sleep'], 'event_time': ['evening', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2154-01-08 15:12:00 and 2154-01-08 15:38:00):\n           speach and swallow consult reminded patient that [** **] should be removed in evening prior to going to sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'others'], 'event_detection_time': 7.48040002794005}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>['going to sleep']</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['going to sleep', 'reminded patient that [** **] should be removed in evening prior to going to sleep']</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:going to sleep', 'e2=Family|1:reminded patient that [** **] should be removed in evening prior to going to sleep']</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -2417,52 +2687,62 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(Timestamp('2130-05-27 14:26:00'), Timestamp('2130-05-27 14:36:00'))</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'text': 'apologetic to this rn for behavior this am, stating she just wanted to sleep', 'event': ['Sleep', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "stating she just wanted to sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "am",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "apologetic to this rn for behavior this am",\n      "actor": "patient",\n      "object": "rn",\n      "negation": false,\n      "time": "am",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "communication",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['stating she just wanted to sleep', 'apologetic to this rn for behavior this am'], 'event_time': ['am', 'am'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2130-05-27 14:26:00 and 2130-05-27 14:36:00):\n           apologetic to this rn for behavior this am, stating she just wanted to sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.792811283841729}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['stating she just wanted to sleep']</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>['Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>['stating she just wanted to sleep', 'apologetic to this rn for behavior this am']</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:stating she just wanted to sleep', 'e2=Family|1:apologetic to this rn for behavior this am']</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -2488,52 +2768,62 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(Timestamp('2146-01-11 05:33:00'), Timestamp('2146-01-11 05:50:00'))</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'text': 'focused on need to alter diet, use bipap to sleep at nite', 'event': ['Eating', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "alter diet",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "use bipap to sleep at nite",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "nite",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['alter diet', 'use bipap to sleep at nite'], 'event_time': ['Unknown', 'nite'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2146-01-11 05:33:00 and 2146-01-11 05:50:00):\n           focused on need to alter diet, use bipap to sleep at nite\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.8450225808192044}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>['use bipap to sleep at nite']</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>['Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>['alter diet', 'use bipap to sleep at nite']</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>['e1=Eating|1:alter diet', 'e2=Sleep|1:use bipap to sleep at nite']</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2559,52 +2849,62 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(Timestamp('2197-05-29 03:38:00'), Timestamp('2197-05-29 03:45:00'))</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'text': 'percocet x 1, serax x 1 for pain and sleep', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "percocet x 1, serax x 1 for pain and sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "percocet x 1, serax x 1 for pain and sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]], 'text_quotes': ['percocet x 1, serax x 1 for pain and sleep', 'percocet x 1, serax x 1 for pain and sleep'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2197-05-29 03:38:00 and 2197-05-29 03:45:00):\n           percocet x 1, serax x 1 for pain and sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.557817454915494}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['percocet x 1, serax x 1 for pain and sleep']</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>['percocet x 1, serax x 1 for pain and sleep', 'percocet x 1, serax x 1 for pain and sleep']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>['e1=Pain|1:percocet x 1, serax x 1 for pain and sleep', 'e2=Sleep|1:percocet x 1, serax x 1 for pain and sleep']</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2630,52 +2930,62 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(Timestamp('2129-06-09 06:16:00'), Timestamp('2129-06-09 06:30:00'))</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'text': 'patient given sleep aid, tolerated well', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient given sleep aid, tolerated well",\n      "actor": "patient",\n      "object": "sleep aid",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "tolerated well"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'tolerated well'}}}], 'orders': [[]], 'text_quotes': ['patient given sleep aid, tolerated well'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2129-06-09 06:16:00 and 2129-06-09 06:30:00):\n           patient given sleep aid, tolerated well\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6300919740460813}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>['patient given sleep aid, tolerated well']</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'tolerated well'}}}]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'tolerated well'}}}]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>['patient given sleep aid, tolerated well']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient given sleep aid, tolerated well']</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -2701,52 +3011,62 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(Timestamp('2154-01-09 17:13:00'), Timestamp('2154-01-09 17:38:00'))</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{'text': "gets anxious, appears to be about breathing, won't tolerate being on side, has ativan pro re nata and trazadone for sleeping @ night", 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "gets anxious, appears to be about breathing",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "breathing",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "has ativan pro re nata and trazadone for sleeping @ night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'breathing', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['gets anxious, appears to be about breathing', 'has ativan pro re nata and trazadone for sleeping @ night'], 'event_time': ['Unknown', 'night'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2154-01-09 17:13:00 and 2154-01-09 17:38:00):\n           gets anxious, appears to be about breathing, won\'t tolerate being on side, has ativan pro re nata and trazadone for sleeping @ night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.312321763951331}</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>['has ativan pro re nata and trazadone for sleeping @ night']</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'breathing', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>['gets anxious, appears to be about breathing', 'has ativan pro re nata and trazadone for sleeping @ night']</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>['e1=Pain|1:gets anxious, appears to be about breathing', 'e2=Sleep|1:has ativan pro re nata and trazadone for sleeping @ night']</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2772,52 +3092,62 @@
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(Timestamp('2170-03-16 07:25:00'), Timestamp('2170-03-16 07:39:00'))</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nursing progress notes-"my back is sore"o-neuro alert and oriented x3, asking for a sleeping pill', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "my back is sore",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "asking for a sleeping pill",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['my back is sore', 'asking for a sleeping pill'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2170-03-16 07:25:00 and 2170-03-16 07:39:00):\n           ccu nursing progress notes-"my back is sore"o-neuro alert and oriented x3, asking for a sleeping pill\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.84439606894739}</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>['asking for a sleeping pill']</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>['my back is sore', 'asking for a sleeping pill']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>['e1=Pain|1:my back is sore', 'e2=Sleep|1:asking for a sleeping pill']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2843,52 +3173,62 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(Timestamp('2149-10-26 05:43:00'), Timestamp('2149-10-26 06:20:00'))</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{'text': 'to facilitate sleep &amp; help control bp', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "to facilitate sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "help control bp",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['to facilitate sleep', 'help control bp'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2149-10-26 05:43:00 and 2149-10-26 06:20:00):\n           to facilitate sleep &amp; help control bp\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 6.318568351212889}</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['to facilitate sleep']</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>['Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['to facilitate sleep', 'help control bp']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:to facilitate sleep', 'e2=Unknown|1:help control bp']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2914,52 +3254,62 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(Timestamp('2146-10-14 22:40:00'), Timestamp('2146-10-14 22:58:00'))</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'text': 'pro re nata ativan by mouth ordered, give to sleep and as nec. for anxiety, esp', 'event': ['Sleep', 'Pain', 'Eating'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "give to sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "anxiety",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['give to sleep', 'anxiety', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2146-10-14 22:40:00 and 2146-10-14 22:58:00):\n           pro re nata ativan by mouth ordered, give to sleep and as nec. for anxiety, esp\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 9.865504872985184}</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>['give to sleep']</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating']</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Eating': {'Eating': {}}}]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>['give to sleep', 'anxiety', '']</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:give to sleep', 'e2=Pain|1:anxiety', 'e3=Eating|1:']</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2985,52 +3335,62 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(Timestamp('2119-04-14 04:52:00'), Timestamp('2119-04-14 05:17:00'))</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'text': 'encouraged to take sleeping aid to facilitate uninterupted sleep', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "encouraged to take sleeping aid to facilitate uninterupted sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "uninterrupted"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'uninterrupted'}}}], 'orders': [[]], 'text_quotes': ['encouraged to take sleeping aid to facilitate uninterupted sleep'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2119-04-14 04:52:00 and 2119-04-14 05:17:00):\n           encouraged to take sleeping aid to facilitate uninterupted sleep\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.816679611103609}</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>['encouraged to take sleeping aid to facilitate uninterupted sleep']</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'uninterrupted'}}}]</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'uninterrupted'}}}]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>['encouraged to take sleeping aid to facilitate uninterupted sleep']</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:encouraged to take sleeping aid to facilitate uninterupted sleep']</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3056,52 +3416,62 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(Timestamp('2198-02-27 06:55:00'), Timestamp('2198-02-27 07:05:00'))</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'text': 'patient states that he has been sleeping up in chair/ sitting position for years.patient stood up at bedside with assist about every 2 hours', 'event': ['Sleep', 'Excretion'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient states that he has been sleeping up in chair/ sitting position for years.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "patient stood up at bedside with assist about every 2 hours",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "every 2 hours",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "about every 2 hours",\n                    "quality": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'about every 2 hours', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient states that he has been sleeping up in chair/ sitting position for years.', 'patient stood up at bedside with assist about every 2 hours'], 'event_time': ['Unknown', 'every 2 hours'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2198-02-27 06:55:00 and 2198-02-27 07:05:00):\n           patient states that he has been sleeping up in chair/ sitting position for years.patient stood up at bedside with assist about every 2 hours\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.570249977055937}</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>['patient states that he has been sleeping up in chair/ sitting position for years.']</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion']</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'about every 2 hours', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>['patient states that he has been sleeping up in chair/ sitting position for years.', 'patient stood up at bedside with assist about every 2 hours']</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient states that he has been sleeping up in chair/ sitting position for years.', 'e2=Excretion|1:patient stood up at bedside with assist about every 2 hours']</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3127,52 +3497,62 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(Timestamp('2169-06-26 19:00:00'), Timestamp('2169-06-26 19:09:00'))</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{'text': 'plan: wake and eval neuro status and put back to sleep overnoc', 'event': ['Sleep', 'Unknown'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "put back to sleep overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "wake and eval neuro status",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['put back to sleep overnight', 'wake and eval neuro status'], 'event_time': ['overnight', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2169-06-26 19:00:00 and 2169-06-26 19:09:00):\n           plan: wake and eval neuro status and put back to sleep overnoc\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.097232952015474}</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['put back to sleep overnight']</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>['Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>['put back to sleep overnight', 'wake and eval neuro status']</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>['e1=Sleep|0:put back to sleep overnight', 'e2=Unknown|1:wake and eval neuro status']</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -3198,52 +3578,62 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-05-31 19:29:00'), Timestamp('2102-05-31 19:43:00'))</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{'text': 'patient may get sleeping pill but team has not ordered this yet', 'event': ['Sleep', 'Family'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient may get sleeping pill",\n      "actor": "patient",\n      "object": "sleeping pill",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}], 'orders': [[]], 'text_quotes': ['patient may get sleeping pill', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, True], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-05-31 19:29:00 and 2102-05-31 19:43:00):\n           patient may get sleeping pill but team has not ordered this yet\n        ', 'case_attributes': [[]], 'actor': ['patient', ''], 'event_detection_time': 5.809173008892685}</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>['patient may get sleeping pill']</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>['Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['patient may get sleeping pill', '']</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient may get sleeping pill', 'e2=Family|1:']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3269,52 +3659,62 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(Timestamp('2197-02-06 18:41:00'), Timestamp('2197-02-06 18:52:00'))</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{'text': 'act: oob in chair all day due ambulated short distance x1, wants to sleep in bed tonight', 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "wants to sleep in bed tonight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "tonight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Sleep",\n      "text_quote": "act: oob in chair all day due ambulated short distance x1",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "all day",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e7",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}, {'Excretion': {}}, {'Sleep': {'Sleep': {}}}], 'orders': [[{'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['wants to sleep in bed tonight', '', '', '', '', '', 'act: oob in chair all day due ambulated short distance x1'], 'event_time': ['tonight', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'all day'], 'negation': [False, True, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2197-02-06 18:41:00 and 2197-02-06 18:52:00):\n           act: oob in chair all day due ambulated short distance x1, wants to sleep in bed tonight\n        ', 'case_attributes': [[]], 'actor': ['patient', '', '', '', '', '', 'patient'], 'event_detection_time': 17.19603915582411}</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>['wants to sleep in bed tonight', 'act: oob in chair all day due ambulated short distance x1']</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}, {'Excretion': {}}, {'Pain': {}}, {'Eating': {}}, {'Family': {}}, {'Excretion': {}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>['wants to sleep in bed tonight', '', '', '', '', '', 'act: oob in chair all day due ambulated short distance x1']</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:wants to sleep in bed tonight', 'e2=Excretion|1:', 'e3=Pain|1:', 'e4=Eating|1:', 'e5=Family|1:', 'e6=Excretion|1:', 'e7=Sleep|1:act: oob in chair all day due ambulated short distance x1']</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -3340,52 +3740,62 @@
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(Timestamp('2121-04-24 02:49:00'), Timestamp('2121-04-24 03:56:00'))</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{'text': 'asking for med. for sleep', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "asking for med. for sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]], 'text_quotes': ['asking for med. for sleep', ''], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2121-04-24 02:49:00 and 2121-04-24 03:56:00):\n           asking for med. for sleep\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.898128433153033}</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>['asking for med. for sleep']</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>['asking for med. for sleep', '']</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:asking for med. for sleep', 'e2=Pain|1:']</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -3411,52 +3821,62 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(Timestamp('2176-04-20 06:07:00'), Timestamp('2176-04-20 06:21:00'))</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'text': '. awoke at 5 am off sedation, followed commands, gag and cough intact, perla 4 brisk', 'event': ['Sleep', 'Pain', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "awoke at 5 am off sedation",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "5 am",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "gag and cough intact",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "throat",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "followed commands, perla 4 brisk",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'throat', 'duration': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['awoke at 5 am off sedation', 'gag and cough intact', 'followed commands, perla 4 brisk'], 'event_time': ['5 am', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2176-04-20 06:07:00 and 2176-04-20 06:21:00):\n           . awoke at 5 am off sedation, followed commands, gag and cough intact, perla 4 brisk\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.643305899808183}</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>['awoke at 5 am off sedation']</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Unknown']</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'throat', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>['awoke at 5 am off sedation', 'gag and cough intact', 'followed commands, perla 4 brisk']</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:awoke at 5 am off sedation', 'e2=Pain|1:gag and cough intact', 'e3=Unknown|0:followed commands, perla 4 brisk']</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -3482,52 +3902,62 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(Timestamp('2108-09-27 04:35:00'), Timestamp('2108-09-27 04:41:00'))</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{'text': '[**9-27**] 0430 uneventful night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "uneventful night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "uneventful"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'uneventful'}}}], 'orders': [[]], 'text_quotes': ['uneventful night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2108-09-27 04:35:00 and 2108-09-27 04:41:00):\n           [**9-27**] 0430 uneventful night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6105837950017303}</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>['uneventful night']</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'uneventful'}}}]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'uneventful'}}}]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>['uneventful night']</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:uneventful night']</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3553,52 +3983,62 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(Timestamp('2125-05-31 04:15:00'), Timestamp('2125-05-31 04:36:00'))</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{'text': 'pain controlled with morphine 2mg given x2 thru night', 'event': ['Pain', 'Eating', 'Excretion', 'Family', 'Sleep', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "pain controlled with morphine 2mg given x2 thru night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "controlled",\n          "location": "Unknown",\n          "duration": "thru night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": ""\n    },\n    {\n      "event_id_1": "",\n      "relation": "unknown",\n      "event_id_2": ""\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'controlled', 'location': 'Unknown', 'duration': 'thru night'}}}, {'Eating': {'Eating': {}}}, {'Excretion': {'Excretion': {}}}, {'Family': {'Family': {}}}, {'Sleep': {'Sleep': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}, {'event_id_1': '', 'relation': 'unknown', 'event_id_2': ''}]], 'text_quotes': ['pain controlled with morphine 2mg given x2 thru night', '', '', '', '', ''], 'event_time': ['night', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2125-05-31 04:15:00 and 2125-05-31 04:36:00):\n           pain controlled with morphine 2mg given x2 thru night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.48485724395141}</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Family', 'Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'controlled', 'location': 'Unknown', 'duration': 'thru night'}}}, {'Eating': {'Eating': {}}}, {'Excretion': {'Excretion': {}}}, {'Family': {'Family': {}}}, {'Sleep': {'Sleep': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>['pain controlled with morphine 2mg given x2 thru night', '', '', '', '', '']</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pain controlled with morphine 2mg given x2 thru night', 'e2=Eating|1:', 'e3=Excretion|1:', 'e4=Family|1:', 'e5=Sleep|1:', 'e6=Unknown|1:']</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': ''}, {'event_id_1': '', 'relation': 'unknown', 'event_id_2': ''}]]</t>
         </is>
@@ -3624,52 +4064,62 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(Timestamp('2187-05-10 04:19:00'), Timestamp('2187-05-10 04:42:00'))</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{'text': 'patient is awake and alert currently', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient is awake and alert currently",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['patient is awake and alert currently'], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2187-05-10 04:19:00 and 2187-05-10 04:42:00):\n           patient is awake and alert currently\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7879589200019836}</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>['patient is awake and alert currently']</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>['patient is awake and alert currently']</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient is awake and alert currently']</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3695,52 +4145,62 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(Timestamp('2120-01-01 05:53:00'), Timestamp('2120-01-01 06:09:00'))</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro sedated on 60 mcg propofol q hr alert at times, fc, mae c/o pain q 2-3 hr medicated with 4mg iv morphine with good effect', 'event': ['Pain', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "mae c/o pain q 2-3 hr medicated with 4mg iv morphine with good effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "q 2-3 hr"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "neuro sedated on 60 mcg propofol q hr alert at times",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'q 2-3 hr'}}}, {'Eating': {'Eating': {}}}, {'Sleep': {'Sleep': {}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['mae c/o pain q 2-3 hr medicated with 4mg iv morphine with good effect', '', 'neuro sedated on 60 mcg propofol q hr alert at times'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2120-01-01 05:53:00 and 2120-01-01 06:09:00):\n           neuro sedated on 60 mcg propofol q hr alert at times, fc, mae c/o pain q 2-3 hr medicated with 4mg iv morphine with good effect\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 11.960055975941941}</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>['neuro sedated on 60 mcg propofol q hr alert at times']</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'q 2-3 hr'}}}, {'Eating': {'Eating': {}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>['mae c/o pain q 2-3 hr medicated with 4mg iv morphine with good effect', '', 'neuro sedated on 60 mcg propofol q hr alert at times']</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>['e1=Pain|1:mae c/o pain q 2-3 hr medicated with 4mg iv morphine with good effect', 'e2=Eating|1:', 'e3=Sleep|1:neuro sedated on 60 mcg propofol q hr alert at times']</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3766,52 +4226,62 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(Timestamp('2173-08-02 18:14:00'), Timestamp('2173-08-02 18:42:00'))</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{'text': "patient resting quietly in rr 20's, appears calm and relaxed though easily arousable to soft voice and becomes immediatly agiated when awake, including thrashing in bed, reaching for ett, rr to 70's", 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient resting quietly in rr 20\'s, appears calm and relaxed though easily arousable to soft voice",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "restful"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "becomes immediatly agiated when awake, including thrashing in bed, reaching for ett, rr to 70\'s",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "severe",\n          "location": "Unknown",\n          "duration": "immediate"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'restful'}}}, {'Pain': {'Pain': {'severity': 'severe', 'location': 'Unknown', 'duration': 'immediate'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ["patient resting quietly in rr 20's, appears calm and relaxed though easily arousable to soft voice", "becomes immediatly agiated when awake, including thrashing in bed, reaching for ett, rr to 70's"], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2173-08-02 18:14:00 and 2173-08-02 18:42:00):\n           patient resting quietly in rr 20\'s, appears calm and relaxed though easily arousable to soft voice and becomes immediatly agiated when awake, including thrashing in bed, reaching for ett, rr to 70\'s\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 9.013009501155466}</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>["patient resting quietly in rr 20's, appears calm and relaxed though easily arousable to soft voice"]</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'restful'}}}]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'restful'}}}, {'Pain': {'Pain': {'severity': 'severe', 'location': 'Unknown', 'duration': 'immediate'}}}]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>["patient resting quietly in rr 20's, appears calm and relaxed though easily arousable to soft voice", "becomes immediatly agiated when awake, including thrashing in bed, reaching for ett, rr to 70's"]</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:patient resting quietly in rr 20's, appears calm and relaxed though easily arousable to soft voice", "e2=Pain|1:becomes immediatly agiated when awake, including thrashing in bed, reaching for ett, rr to 70's"]</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3837,56 +4307,66 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(Timestamp('2147-10-21 12:43:00'), Timestamp('2147-10-21 13:06:00'))</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>{'text': 'uses good technique with her inhalers.bipap last night to rest and she will use bipap on the floor at night when she is transferred', 'event': ['Unknown', 'Sleep', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "uses good technique with her inhalers.",\n            "actor": "patient",\n            "object": "inhalers",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "bipap last night to rest",\n            "actor": "patient",\n            "object": "bipap",\n            "negation": false,\n            "time": "last night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "and she will use bipap on the floor at night when she is transferred",\n            "actor": "patient",\n            "object": "bipap",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['uses good technique with her inhalers.', 'bipap last night to rest', 'and she will use bipap on the floor at night when she is transferred'], 'event_time': ['Unknown', 'last night', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2147-10-21 12:43:00 and 2147-10-21 13:06:00):\n           uses good technique with her inhalers.bipap last night to rest and she will use bipap on the floor at night when she is transferred\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 10.97859379905276}</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>Rest seems more like sleep.</t>
         </is>
       </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>['bipap last night to rest']</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>['Unknown', 'Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>['uses good technique with her inhalers.', 'bipap last night to rest', 'and she will use bipap on the floor at night when she is transferred']</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:uses good technique with her inhalers.', 'e2=Sleep|1:bipap last night to rest', 'e3=Unknown|1:and she will use bipap on the floor at night when she is transferred']</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -3912,52 +4392,62 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(Timestamp('2153-08-10 21:45:00'), Timestamp('2153-08-10 21:50:00'))</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'text': 'awoke,mae x 4 to command.shivering w waking with decreased svo2-&gt;demerol w effect', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "awoke",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "interrupted"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "shivering w waking with decreased svo2-&gt;demerol w effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "mae x 4 to command",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "4 times",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "demerol w effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e2",\n      "event_attributes": {\n        "Pain": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '4 times', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['awoke', 'shivering w waking with decreased svo2-&gt;demerol w effect', 'mae x 4 to command', '', '', 'demerol w effect'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'e2'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2153-08-10 21:45:00 and 2153-08-10 21:50:00):\n           awoke,mae x 4 to command.shivering w waking with decreased svo2-&gt;demerol w effect\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.564134031999856}</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>['awoke']</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '4 times', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>['awoke', 'shivering w waking with decreased svo2-&gt;demerol w effect', 'mae x 4 to command', '', '', 'demerol w effect']</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:awoke', 'e2=Pain|1:shivering w waking with decreased svo2-&gt;demerol w effect', 'e3=Excretion|1:mae x 4 to command', 'e4=Eating|1:', 'e5=Family|1:', 'e6=Pain|1:demerol w effect']</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -3983,52 +4473,62 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(Timestamp('2108-01-02 18:32:00'), Timestamp('2108-01-02 18:38:00'))</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: a&amp;o x3, forgetful of place occasionally, mae, denies pain or discomfort, oob x2 most of shift, went from 2 person max assist transfer this am to 1 person moderate assist bed to chair', 'event': ['Pain', 'Excretion', 'Eating', 'Sleep', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "denies pain or discomfort",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "oob x2 most of shift",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "2x",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "went from 2 person max assist transfer this am to 1 person moderate assist bed to chair",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "am",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e6",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': '2x', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]], 'text_quotes': ['denies pain or discomfort', 'oob x2 most of shift', '', '', '', 'went from 2 person max assist transfer this am to 1 person moderate assist bed to chair'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'am'], 'negation': [True, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2108-01-02 18:32:00 and 2108-01-02 18:38:00):\n           neuro: a&amp;o x3, forgetful of place occasionally, mae, denies pain or discomfort, oob x2 most of shift, went from 2 person max assist transfer this am to 1 person moderate assist bed to chair\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.745792414061725}</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Sleep', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': '2x', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>['denies pain or discomfort', 'oob x2 most of shift', '', '', '', 'went from 2 person max assist transfer this am to 1 person moderate assist bed to chair']</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>['e1=Pain|1:denies pain or discomfort', 'e2=Excretion|1:oob x2 most of shift', 'e3=Eating|1:', 'e4=Sleep|1:', 'e5=Family|1:', 'e6=Unknown|1:went from 2 person max assist transfer this am to 1 person moderate assist bed to chair']</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4054,52 +4554,62 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(Timestamp('2105-12-06 02:22:00'), Timestamp('2105-12-06 02:32:00'))</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: alert, oriented to name and date but not to place, confused, pulled his iv line and was noticed pulling at chest tube, restrained for safety, c/o bilateral knee pain, given oxycodone with fair effect', 'event': ['Pain', 'Eating', 'Family', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o bilateral knee pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "bilateral knee",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "given oxycodone with fair effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "e1",\n      "event_attributes": {\n        "Pain": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'bilateral knee', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Sleep': {'Sleep': {}}}, {'Excretion': {'Excretion': {}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['c/o bilateral knee pain', '', '', '', '', 'given oxycodone with fair effect'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'e1'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2105-12-06 02:22:00 and 2105-12-06 02:32:00):\n           neuro: alert, oriented to name and date but not to place, confused, pulled his iv line and was noticed pulling at chest tube, restrained for safety, c/o bilateral knee pain, given oxycodone with fair effect\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.11796110216528}</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Family', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'bilateral knee', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Sleep': {'Sleep': {}}}, {'Excretion': {'Excretion': {}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>['c/o bilateral knee pain', '', '', '', '', 'given oxycodone with fair effect']</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o bilateral knee pain', 'e2=Eating|1:', 'e3=Family|1:', 'e4=Sleep|1:', 'e5=Excretion|1:', 'e6=Pain|1:given oxycodone with fair effect']</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -4125,52 +4635,62 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(Timestamp('2137-09-17 05:12:00'), Timestamp('2137-09-17 05:31:00'))</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro:  pearl, pupils 3-4mm, opens eyes with stimulation and blinking but does not seem to focus or track, neuro status continues to wax and wane between moving all extremities with increased stimulation to posturing of upper extremities with extension of lower extremities, followed command of squeezing hand once during night, bilat soft wrist restraints, propofol initially at 15 mcgs and increased to 20 mcgs for increased hr and restlessness', 'event': ['Unknown', 'Unknown', 'Unknown', 'Pain', 'Eating', 'Excretion', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "neuro: pearl, pupils 3-4mm, opens eyes with stimulation and blinking but does not seem to focus or track",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Unknown",\n      "text_quote": "neuro status continues to wax and wane between moving all extremities with increased stimulation to posturing of upper extremities with extension of lower extremities",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "followed command of squeezing hand once during night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "increased hr and restlessness",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Sleep': {'Sleep': {'quality': '', 'duration': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}], 'orders': [[]], 'text_quotes': ['neuro: pearl, pupils 3-4mm, opens eyes with stimulation and blinking but does not seem to focus or track', 'neuro status continues to wax and wane between moving all extremities with increased stimulation to posturing of upper extremities with extension of lower extremities', 'followed command of squeezing hand once during night', 'increased hr and restlessness', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'night', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2137-09-17 05:12:00 and 2137-09-17 05:31:00):\n           neuro:  pearl, pupils 3-4mm, opens eyes with stimulation and blinking but does not seem to focus or track, neuro status continues to wax and wane between moving all extremities with increased stimulation to posturing of upper extremities with extension of lower extremities, followed command of squeezing hand once during night, bilat soft wrist restraints, propofol initially at 15 mcgs and increased to 20 mcgs for increased hr and restlessness\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.49081837804988}</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': '', 'duration': ''}}}]</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Pain', 'Eating', 'Excretion', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Sleep': {'Sleep': {'quality': '', 'duration': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}]</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>['neuro: pearl, pupils 3-4mm, opens eyes with stimulation and blinking but does not seem to focus or track', 'neuro status continues to wax and wane between moving all extremities with increased stimulation to posturing of upper extremities with extension of lower extremities', 'followed command of squeezing hand once during night', 'increased hr and restlessness', '', '', '', '']</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:neuro: pearl, pupils 3-4mm, opens eyes with stimulation and blinking but does not seem to focus or track', 'e2=Unknown|1:neuro status continues to wax and wane between moving all extremities with increased stimulation to posturing of upper extremities with extension of lower extremities', 'e3=Unknown|1:followed command of squeezing hand once during night', 'e4=Pain|1:increased hr and restlessness', 'e5=Eating|1:', 'e6=Excretion|1:', 'e7=Sleep|1:', 'e8=Family|1:']</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4196,52 +4716,62 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(Timestamp('2103-05-11 06:01:00'), Timestamp('2103-05-11 06:06:00'))</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>{'text': 'rsbi was 38 but breaths were shallowa as patient is still heavily sedated overnight', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "still heavily sedated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "during",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'during', 'event_id_2': 'e1'}]], 'text_quotes': ['overnight', 'still heavily sedated'], 'event_time': ['overnight', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2103-05-11 06:01:00 and 2103-05-11 06:06:00):\n           rsbi was 38 but breaths were shallowa as patient is still heavily sedated overnight\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 7.944383325986564}</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>['overnight']</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>['overnight', 'still heavily sedated']</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:overnight', 'e2=Pain|1:still heavily sedated']</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'during', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4267,52 +4797,62 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(Timestamp('2120-03-28 14:59:00'), Timestamp('2120-03-28 15:38:00'))</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro:patient open eyes to voice,moves r leg which is in skeletal txbrings l leg up and holds it up,moves r arm to nipple pinch,l arm to painful stimuli..pupils =&amp;+.remains on propofol qtt with intermittent fentanyl.patient had cervical/thoracic mri today', 'event': ['Unknown', 'Pain', 'Family', 'Excretion', 'Eating', 'Sleep', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient open eyes to voice,moves r leg which is in skeletal txbrings l leg up and holds it up,moves r arm to nipple pinch,l arm to painful stimuli.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "l arm to painful stimuli.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "l arm",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "others",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "others",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "others",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "others",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "patient had cervical/thoracic mri today",\n      "actor": "patient",\n      "object": "others",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e7"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'l arm', 'duration': 'Unknown'}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Eating': {'Eating': {}}}, {'Sleep': {'Sleep': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]], 'text_quotes': ['patient open eyes to voice,moves r leg which is in skeletal txbrings l leg up and holds it up,moves r arm to nipple pinch,l arm to painful stimuli.', 'l arm to painful stimuli.', '', '', '', '', 'patient had cervical/thoracic mri today'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2120-03-28 14:59:00 and 2120-03-28 15:38:00):\n           neuro:patient open eyes to voice,moves r leg which is in skeletal txbrings l leg up and holds it up,moves r arm to nipple pinch,l arm to painful stimuli..pupils =&amp;+.remains on propofol qtt with intermittent fentanyl.patient had cervical/thoracic mri today\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.12270985892974}</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>['Unknown', 'Pain', 'Family', 'Excretion', 'Eating', 'Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'l arm', 'duration': 'Unknown'}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {}}}, {'Eating': {'Eating': {}}}, {'Sleep': {'Sleep': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>['patient open eyes to voice,moves r leg which is in skeletal txbrings l leg up and holds it up,moves r arm to nipple pinch,l arm to painful stimuli.', 'l arm to painful stimuli.', '', '', '', '', 'patient had cervical/thoracic mri today']</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient open eyes to voice,moves r leg which is in skeletal txbrings l leg up and holds it up,moves r arm to nipple pinch,l arm to painful stimuli.', 'e2=Pain|1:l arm to painful stimuli.', 'e3=Family|1:', 'e4=Excretion|1:', 'e5=Eating|1:', 'e6=Sleep|1:', 'e7=Unknown|1:patient had cervical/thoracic mri today']</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4338,52 +4878,62 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>(Timestamp('2190-08-10 05:46:00'), Timestamp('2190-08-10 06:00:00'))</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: patient sedated on propofol overnight', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient sedated on propofol overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "sedated"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'sedated'}}}], 'orders': [[]], 'text_quotes': ['patient sedated on propofol overnight'], 'event_time': ['overnight'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2190-08-10 05:46:00 and 2190-08-10 06:00:00):\n           neuro: patient sedated on propofol overnight\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.71266141301021}</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['patient sedated on propofol overnight']</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'sedated'}}}]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'sedated'}}}]</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>['patient sedated on propofol overnight']</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient sedated on propofol overnight']</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4409,52 +4959,62 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(Timestamp('2190-08-30 04:28:00'), Timestamp('2190-08-30 04:29:00'))</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care, patient remains intubated on psv. patient had stable night, plan to initiate sbt adn extubate later this morning', 'event': ['Unknown', 'Sleep', 'Unknown'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient remains intubated on psv",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient had stable night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "stable"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Unknown",\n      "text_quote": "plan to initiate sbt adn extubate later this morning",\n      "actor": "Unknown",\n      "object": "patient",\n      "negation": false,\n      "time": "later this morning",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Sleep': {'Sleep': {'quality': 'stable'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['patient remains intubated on psv', 'patient had stable night', 'plan to initiate sbt adn extubate later this morning'], 'event_time': ['Unknown', 'night', 'later this morning'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2190-08-30 04:28:00 and 2190-08-30 04:29:00):\n           resp care, patient remains intubated on psv. patient had stable night, plan to initiate sbt adn extubate later this morning\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'Unknown'], 'event_detection_time': 10.490233320044354}</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>['patient had stable night']</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'stable'}}}]</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>['Unknown', 'Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Sleep': {'Sleep': {'quality': 'stable'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>['patient remains intubated on psv', 'patient had stable night', 'plan to initiate sbt adn extubate later this morning']</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient remains intubated on psv', 'e2=Sleep|1:patient had stable night', 'e3=Unknown|1:plan to initiate sbt adn extubate later this morning']</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -4480,52 +5040,62 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-06-30 15:37:00'), Timestamp('2102-06-30 15:53:00'))</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: patient is sleepy, but easy to rouse', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient is sleepy, but easy to rouse",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['patient is sleepy, but easy to rouse'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-06-30 15:37:00 and 2102-06-30 15:53:00):\n           neuro: patient is sleepy, but easy to rouse\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.901058876886964}</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['patient is sleepy, but easy to rouse']</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>['patient is sleepy, but easy to rouse']</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient is sleepy, but easy to rouse']</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4551,52 +5121,62 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(Timestamp('2116-06-23 20:10:00'), Timestamp('2116-06-23 20:29:00'))</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{'text': 'sedatives pro re nata for comfort, rest at night', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "rest at night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "sedatives pro re nata for comfort",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['rest at night', 'sedatives pro re nata for comfort'], 'event_time': ['night', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2116-06-23 20:10:00 and 2116-06-23 20:29:00):\n           sedatives pro re nata for comfort, rest at night\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.059253626968712}</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['rest at night']</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>['rest at night', 'sedatives pro re nata for comfort']</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:rest at night', 'e2=Pain|1:sedatives pro re nata for comfort']</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4622,52 +5202,62 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(Timestamp('2115-05-20 05:46:00'), Timestamp('2115-05-20 05:57:00'))</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: lethargic, will answer questions, turning self in bed', 'event': ['Sleep', 'Pain'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "turning self in bed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "neuro: lethargic, will answer questions",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]], 'text_quotes': ['turning self in bed', 'neuro: lethargic, will answer questions'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2115-05-20 05:46:00 and 2115-05-20 05:57:00):\n           neuro: lethargic, will answer questions, turning self in bed\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.17696914402768}</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['turning self in bed']</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>['turning self in bed', 'neuro: lethargic, will answer questions']</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:turning self in bed', 'e2=Pain|1:neuro: lethargic, will answer questions']</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -4693,52 +5283,62 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(Timestamp('2156-03-23 10:35:00'), Timestamp('2156-03-23 11:03:00'))</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{'text': 'patient remains awake through procedure, but relaxed', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient remains awake through procedure, but relaxed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[]], 'text_quotes': ['patient remains awake through procedure, but relaxed'], 'event_time': ['Unknown'], 'negation': [True], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2156-03-23 10:35:00 and 2156-03-23 11:03:00):\n           patient remains awake through procedure, but relaxed\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8424387630075216}</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>['patient remains awake through procedure, but relaxed']</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>['patient remains awake through procedure, but relaxed']</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient remains awake through procedure, but relaxed']</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4764,52 +5364,62 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(Timestamp('2148-12-13 02:41:00'), Timestamp('2148-12-13 02:52:00'))</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: patient sedated on fentanyl 100mcg/hr and versed 4mg/hr,patient required multiple boluses of sedation for suction and reposition', 'event': ['Pain', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "required multiple boluses of sedation for suction and reposition",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient sedated on fentanyl 100mcg/hr and versed 4mg/hr",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "sedated",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'sedated', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['required multiple boluses of sedation for suction and reposition', 'patient sedated on fentanyl 100mcg/hr and versed 4mg/hr'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2148-12-13 02:41:00 and 2148-12-13 02:52:00):\n           neuro: patient sedated on fentanyl 100mcg/hr and versed 4mg/hr,patient required multiple boluses of sedation for suction and reposition\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 8.698959557106718}</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['patient sedated on fentanyl 100mcg/hr and versed 4mg/hr']</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>['required multiple boluses of sedation for suction and reposition', 'patient sedated on fentanyl 100mcg/hr and versed 4mg/hr']</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>['e1=Pain|1:required multiple boluses of sedation for suction and reposition', 'e2=Sleep|1:patient sedated on fentanyl 100mcg/hr and versed 4mg/hr']</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4835,52 +5445,62 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-07-19 06:16:00'), Timestamp('2171-07-19 06:45:00'))</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{'text': 'pmicu nursing progress notepatient on and off bipap during the night', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "on and off bipap during the night",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "on and off"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}], 'orders': [[]], 'text_quotes': ['on and off bipap during the night'], 'event_time': ['night'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-07-19 06:16:00 and 2171-07-19 06:45:00):\n           pmicu nursing progress notepatient on and off bipap during the night\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.953949281014502}</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['on and off bipap during the night']</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>['on and off bipap during the night']</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:on and off bipap during the night']</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4906,52 +5526,62 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-05 05:15:00'), Timestamp('2151-04-05 05:32:00'))</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>{'text': '[**4-3**] nites', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "[**4-3**] nites",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "4-3 nights"\n                }\n            }\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': '4-3 nights'}}}], 'orders': [[]], 'text_quotes': ['[**4-3**] nites'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-05 05:15:00 and 2151-04-05 05:32:00):\n           [**4-3**] nites\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.944571442902088}</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>['[**4-3**] nites']</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': '4-3 nights'}}}]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': '4-3 nights'}}}]</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>['[**4-3**] nites']</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:[**4-3**] nites']</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -4977,52 +5607,62 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-02 07:08:00'), Timestamp('2151-04-02 08:13:00'))</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>{'text': 's-lethargic and sedated', 'event': ['Sleep'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "s-lethargic and sedated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}], 'orders': [[]], 'text_quotes': ['s-lethargic and sedated'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-02 07:08:00 and 2151-04-02 08:13:00):\n           s-lethargic and sedated\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.6648516149725765}</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>['s-lethargic and sedated']</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>['Sleep']</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>['s-lethargic and sedated']</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:s-lethargic and sedated']</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
